--- a/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
+++ b/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\trans\BESP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/nj/trans/besp/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF1225C1-59EF-414B-B2B9-18CD5EF7770F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="25875" windowHeight="13365"/>
+    <workbookView xWindow="120" yWindow="460" windowWidth="25880" windowHeight="13360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,10 +21,21 @@
     <sheet name="BESP-passengers" sheetId="3" r:id="rId6"/>
     <sheet name="BESP-freight" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId8"/>
+    <pivotCache cacheId="118" r:id="rId8"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -546,7 +558,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -623,7 +635,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -656,6 +668,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -692,7 +705,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Robbie Orvis" refreshedDate="43635.638991087966" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="45">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Robbie Orvis" refreshedDate="43635.638991087966" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="45" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:P47" sheet="2019 Sales" r:id="rId2"/>
   </cacheSource>
@@ -1681,7 +1694,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable5" cacheId="118" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G22:J40" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -1903,12 +1916,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable4" cacheId="118" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A22:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -2033,6 +2049,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
@@ -2113,6 +2132,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2148,6 +2184,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2323,22 +2376,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="70.86328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="70.83203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="24">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2346,159 +2402,159 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B5" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="20" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B11" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B13" s="20" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="20" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="20"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B27" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B31" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B13" r:id="rId2"/>
-    <hyperlink ref="B19" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B19" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -2506,26 +2562,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A33" sqref="A33:AF33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" customWidth="1"/>
-    <col min="2" max="2" width="15.73046875" customWidth="1"/>
-    <col min="3" max="3" width="19.1328125" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>2019</v>
       </c>
@@ -2623,7 +2679,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <f>BAU!C92</f>
         <v>2745.8606136031603</v>
@@ -2753,25 +2809,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -2782,7 +2838,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>2500</v>
       </c>
@@ -2793,7 +2849,7 @@
         <v>39250017</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>5000</v>
       </c>
@@ -2804,7 +2860,7 @@
         <v>5540545</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>3500</v>
       </c>
@@ -2815,7 +2871,7 @@
         <v>952065</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A12" s="5">
         <v>1500</v>
       </c>
@@ -2826,7 +2882,7 @@
         <v>4681666</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>2500</v>
       </c>
@@ -2837,7 +2893,7 @@
         <v>6811779</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1500</v>
       </c>
@@ -2848,7 +2904,7 @@
         <v>3923561</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>2500</v>
       </c>
@@ -2859,15 +2915,15 @@
         <v>1056426</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.2">
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
@@ -2875,7 +2931,7 @@
         <v>323127513</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" t="s">
         <v>24</v>
@@ -2885,29 +2941,29 @@
         <v>260911454</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <f>SUMPRODUCT(A9:A15,C9:C15)/C18</f>
         <v>500.54031765472104</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2019</v>
       </c>
@@ -3005,7 +3061,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <f>A3+$A$22</f>
         <v>3246.4009312578814</v>
@@ -3135,7 +3191,7 @@
         <v>500.54031765472104</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -3239,7 +3295,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>170</v>
       </c>
@@ -3343,12 +3399,12 @@
         <v>40174.6</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2019</v>
       </c>
@@ -3446,7 +3502,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <f>A26/B29</f>
         <v>8.2485985498332734E-2</v>
@@ -3576,7 +3632,7 @@
         <v>1.7036538564986214E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B45" s="13"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -3595,33 +3651,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AI92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.73046875" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" customWidth="1"/>
-    <col min="6" max="6" width="11.86328125" customWidth="1"/>
-    <col min="7" max="7" width="13.1328125" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.73046875" customWidth="1"/>
-    <col min="10" max="10" width="11.86328125" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="D1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>44</v>
       </c>
@@ -3725,7 +3781,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -3866,7 +3922,7 @@
         <v>10491284.759464676</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -4007,7 +4063,7 @@
         <v>2742926.6364013483</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -4148,7 +4204,7 @@
         <v>10044622.790505566</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -4289,7 +4345,7 @@
         <v>520525.68376530847</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4430,7 +4486,7 @@
         <v>5294154.9930739682</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -4571,7 +4627,7 @@
         <v>21619399.202694658</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -4712,7 +4768,7 @@
         <v>1758815.7387046153</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -4853,7 +4909,7 @@
         <v>3203277.9124866971</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -4994,7 +5050,7 @@
         <v>4962634.4062189991</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -5135,7 +5191,7 @@
         <v>1820215.3292029649</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -5276,7 +5332,7 @@
         <v>8707283.6971664578</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -5417,7 +5473,7 @@
         <v>2272815.2177190986</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -5558,7 +5614,7 @@
         <v>103198947.36781919</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -5699,7 +5755,7 @@
         <v>13285904.130782969</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -5840,7 +5896,7 @@
         <v>2712962.9636383313</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -5981,7 +6037,7 @@
         <v>2289597.9928575293</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -6122,7 +6178,7 @@
         <v>2235598.1774976109</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -6145,7 +6201,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>47</v>
       </c>
@@ -6169,7 +6225,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>48</v>
       </c>
@@ -6193,7 +6249,7 @@
         <v>3255</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
@@ -6217,7 +6273,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
@@ -6241,7 +6297,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>51</v>
       </c>
@@ -6265,7 +6321,7 @@
         <v>8256</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>46</v>
       </c>
@@ -6289,7 +6345,7 @@
         <v>3954</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>52</v>
       </c>
@@ -6313,7 +6369,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>67</v>
       </c>
@@ -6337,7 +6393,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>53</v>
       </c>
@@ -6361,7 +6417,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>54</v>
       </c>
@@ -6385,7 +6441,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>55</v>
       </c>
@@ -6409,7 +6465,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>31</v>
       </c>
@@ -6433,7 +6489,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>56</v>
       </c>
@@ -6457,7 +6513,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>68</v>
       </c>
@@ -6479,7 +6535,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>2</v>
       </c>
@@ -6503,7 +6559,7 @@
         <v>29900</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>57</v>
       </c>
@@ -6527,7 +6583,7 @@
         <v>4148</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>59</v>
       </c>
@@ -6551,7 +6607,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>58</v>
       </c>
@@ -6575,7 +6631,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>69</v>
       </c>
@@ -6583,7 +6639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.2">
       <c r="I43" s="17"/>
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
@@ -6611,12 +6667,12 @@
       <c r="AG43" s="17"/>
       <c r="AH43" s="17"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>71</v>
       </c>
@@ -6720,7 +6776,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>169</v>
       </c>
@@ -6824,7 +6880,7 @@
         <v>1226380</v>
       </c>
     </row>
-    <row r="47" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="22" t="s">
         <v>72</v>
       </c>
@@ -6928,12 +6984,12 @@
         <v>10120000</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -7070,7 +7126,7 @@
         <v>605864.72575437836</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -7207,7 +7263,7 @@
         <v>158194.03242970258</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -7344,7 +7400,7 @@
         <v>576599.85300218244</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -7481,7 +7537,7 @@
         <v>27832.326533556985</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -7618,7 +7674,7 @@
         <v>299913.78334505705</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -7755,7 +7811,7 @@
         <v>1239561.7780423139</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -7892,7 +7948,7 @@
         <v>101301.4826037552</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -8029,7 +8085,7 @@
         <v>184696.13747452336</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -8166,7 +8222,7 @@
         <v>286202.26953808416</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -8303,7 +8359,7 @@
         <v>104985.17288025538</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -8440,7 +8496,7 @@
         <v>496479.58948830335</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>56</v>
       </c>
@@ -8577,7 +8633,7 @@
         <v>130975.65427556229</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -8714,7 +8770,7 @@
         <v>5952741.1620944031</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>57</v>
       </c>
@@ -8851,7 +8907,7 @@
         <v>763444.80980466434</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>58</v>
       </c>
@@ -8988,7 +9044,7 @@
         <v>156249.8625615497</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>59</v>
       </c>
@@ -9125,7 +9181,7 @@
         <v>131998.90157459013</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>60</v>
       </c>
@@ -9262,12 +9318,12 @@
         <v>129338.45859711803</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -9275,7 +9331,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -9283,7 +9339,7 @@
         <v>5366</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -9384,7 +9440,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>46</v>
       </c>
@@ -9517,7 +9573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>47</v>
       </c>
@@ -9650,7 +9706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>48</v>
       </c>
@@ -9783,7 +9839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>49</v>
       </c>
@@ -9916,7 +9972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>50</v>
       </c>
@@ -10049,7 +10105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>51</v>
       </c>
@@ -10182,7 +10238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>52</v>
       </c>
@@ -10315,7 +10371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>53</v>
       </c>
@@ -10448,7 +10504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>54</v>
       </c>
@@ -10581,7 +10637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>55</v>
       </c>
@@ -10714,7 +10770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>31</v>
       </c>
@@ -10847,7 +10903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>56</v>
       </c>
@@ -10980,7 +11036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -11113,7 +11169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>57</v>
       </c>
@@ -11246,7 +11302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>58</v>
       </c>
@@ -11379,7 +11435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>59</v>
       </c>
@@ -11512,7 +11568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>60</v>
       </c>
@@ -11645,7 +11701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>78</v>
       </c>
@@ -11653,7 +11709,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.2">
       <c r="C92" s="18">
         <f>SUMPRODUCT(C73:C89,C50:C66)/SUM(C50:C66)</f>
         <v>2745.8606136031603</v>
@@ -11797,17 +11853,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:Q51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="26.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -11857,7 +11913,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -11889,7 +11945,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -11921,7 +11977,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -11953,7 +12009,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -11985,7 +12041,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -12017,7 +12073,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -12049,7 +12105,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -12081,7 +12137,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -12113,7 +12169,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -12145,7 +12201,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -12177,7 +12233,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -12209,7 +12265,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -12241,7 +12297,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -12273,7 +12329,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -12305,7 +12361,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -12337,7 +12393,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -12360,7 +12416,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -12392,7 +12448,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -12424,7 +12480,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -12456,7 +12512,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -12488,7 +12544,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -12520,7 +12576,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -12552,7 +12608,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -12584,7 +12640,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -12616,7 +12672,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -12648,7 +12704,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -12680,7 +12736,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -12712,7 +12768,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -12744,7 +12800,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -12776,7 +12832,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -12808,7 +12864,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -12840,7 +12896,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -12872,7 +12928,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -12904,7 +12960,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -12936,7 +12992,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -12965,7 +13021,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -12997,7 +13053,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -13029,7 +13085,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -13052,7 +13108,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -13084,7 +13140,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -13116,7 +13172,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -13148,7 +13204,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -13180,7 +13236,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -13212,7 +13268,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -13244,7 +13300,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -13276,7 +13332,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
         <v>142</v>
       </c>
@@ -13302,7 +13358,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
         <v>143</v>
       </c>
@@ -13349,7 +13405,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
         <v>144</v>
       </c>
@@ -13372,7 +13428,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
         <v>145</v>
       </c>
@@ -13426,20 +13482,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>146</v>
       </c>
@@ -13453,7 +13509,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="23"/>
       <c r="B2" t="s">
         <v>150</v>
@@ -13465,7 +13521,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="23"/>
       <c r="C3">
         <v>200000</v>
@@ -13474,13 +13530,13 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="23"/>
       <c r="D4">
         <v>200000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -13494,7 +13550,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -13508,7 +13564,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -13522,7 +13578,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -13536,7 +13592,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -13550,7 +13606,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -13564,7 +13620,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -13578,7 +13634,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -13592,7 +13648,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -13606,7 +13662,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -13620,7 +13676,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -13634,7 +13690,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -13648,7 +13704,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -13662,7 +13718,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -13676,7 +13732,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -13690,7 +13746,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -13704,7 +13760,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -13727,7 +13783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -13737,12 +13793,12 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>168</v>
       </c>
@@ -13852,7 +13908,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -13997,7 +14053,7 @@
         <v>1.7036538564986214E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -14107,7 +14163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -14217,7 +14273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -14327,7 +14383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -14437,7 +14493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -14553,7 +14609,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -14561,12 +14617,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
         <v>168</v>
       </c>
@@ -14676,7 +14732,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -14786,7 +14842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -14896,7 +14952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -15006,7 +15062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -15116,7 +15172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -15226,7 +15282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>41</v>
       </c>

--- a/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
+++ b/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathaniyer/Library/Containers/com.microsoft.Excel/Data/state-eps-data-repository/NJ/trans/BESP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55BB3012-5048-EB41-B1F4-32BB170F6A09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F171245-EB8A-9A42-9448-89A1C55A8B31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14680" yWindow="460" windowWidth="14060" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14680" yWindow="500" windowWidth="14060" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="71" r:id="rId8"/>
+    <pivotCache cacheId="77" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="555" uniqueCount="284">
   <si>
     <t>BESP BAU EV Subsidy Percentage</t>
   </si>
@@ -883,6 +883,15 @@
   </si>
   <si>
     <t>State Rebates + Tax Credits Updated 8/11/2021</t>
+  </si>
+  <si>
+    <t>Note: this does not include the IRA subsidies</t>
+  </si>
+  <si>
+    <t>The file expressely excludes the IRA related subsidies - more modeling is required to understand</t>
+  </si>
+  <si>
+    <t>which models will apply under the requirements.</t>
   </si>
 </sst>
 </file>
@@ -1157,7 +1166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1223,6 +1232,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
   </cellXfs>
@@ -1272,7 +1284,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nathan Iyer" refreshedDate="44420.463605671299" refreshedVersion="7" recordCount="45" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="Nathan Iyer" refreshedDate="44819.670905439816" refreshedVersion="8" recordCount="45" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:P47" sheet="2019 Sales"/>
   </cacheSource>
@@ -2169,7 +2181,127 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="BAU 2" cacheId="71" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="7" rowGrandTotals="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="BAU" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A22:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField name="Mfg" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
+      <items count="19">
+        <item x="10"/>
+        <item x="5"/>
+        <item x="16"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="15"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="13"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="12"/>
+        <item x="17"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="14"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField name="Type" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="2019 U.S. EV SALES" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="JAN" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="FEB" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="MAR" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="APR" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="MAY" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="JUN" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="JUL" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="AUG" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="SEP" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="OCT" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="NOV" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="DEC" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+    <pivotField name="TOTAL" dataField="1" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="19">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of TOTAL" fld="15" showDataAs="percentOfCol" baseField="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="BAU 2" cacheId="77" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="8" rowGrandTotals="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="G22:J41" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField name="Mfg" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
@@ -2288,126 +2420,6 @@
     <dataField name="Sum of JAN" fld="3" baseField="0"/>
     <dataField name="Sum of FEB" fld="4" baseField="0"/>
     <dataField name="Sum of MAR" fld="5" baseField="0"/>
-  </dataFields>
-  <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="BAU" cacheId="71" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="7" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="A22:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField name="Mfg" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
-      <items count="19">
-        <item x="10"/>
-        <item x="5"/>
-        <item x="16"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="15"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="13"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="12"/>
-        <item x="17"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="14"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField name="Type" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="2019 U.S. EV SALES" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="JAN" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="FEB" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="MAR" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="APR" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="MAY" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="JUN" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="JUL" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="AUG" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="SEP" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="OCT" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="NOV" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="DEC" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-    <pivotField name="TOTAL" dataField="1" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="19">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of TOTAL" fld="15" showDataAs="percentOfCol" baseField="0" numFmtId="10"/>
   </dataFields>
   <pivotTableStyleInfo showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2618,8 +2630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2637,7 +2649,7 @@
         <v>81</v>
       </c>
       <c r="C1" s="50">
-        <v>44420</v>
+        <v>44819</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>2</v>
@@ -3060,6 +3072,9 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="52" t="s">
+        <v>282</v>
+      </c>
       <c r="B40" s="4"/>
       <c r="F40" s="5" t="s">
         <v>104</v>
@@ -3069,6 +3084,9 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="53" t="s">
+        <v>283</v>
+      </c>
       <c r="B41" s="4"/>
       <c r="F41" s="5" t="s">
         <v>106</v>
@@ -6029,8 +6047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6162,95 +6180,72 @@
         <v>1913.0458308533109</v>
       </c>
       <c r="E3" s="11">
-        <f>BAU!G92</f>
-        <v>1531.9111519939402</v>
+        <v>0</v>
       </c>
       <c r="F3" s="11">
-        <f>BAU!H92</f>
-        <v>1131.4322818029341</v>
+        <v>0</v>
       </c>
       <c r="G3" s="11">
-        <f>BAU!I92</f>
-        <v>933.18813916995919</v>
+        <v>0</v>
       </c>
       <c r="H3" s="11">
-        <f>BAU!J92</f>
-        <v>933.18813916995953</v>
+        <v>0</v>
       </c>
       <c r="I3" s="11">
-        <f>BAU!K92</f>
-        <v>744.00735890914916</v>
+        <v>0</v>
       </c>
       <c r="J3" s="11">
-        <f>BAU!L92</f>
-        <v>744.00735890914984</v>
+        <v>0</v>
       </c>
       <c r="K3" s="11">
-        <f>BAU!M92</f>
-        <v>621.92251501542137</v>
+        <v>0</v>
       </c>
       <c r="L3" s="11">
-        <f>BAU!N92</f>
-        <v>240.24673989502756</v>
+        <v>0</v>
       </c>
       <c r="M3" s="11">
-        <f>BAU!O92</f>
-        <v>18.397272874844433</v>
+        <v>0</v>
       </c>
       <c r="N3" s="11">
-        <f>BAU!P92</f>
-        <v>18.397272874844436</v>
+        <v>0</v>
       </c>
       <c r="O3" s="11">
-        <f>BAU!Q92</f>
-        <v>18.397272874844433</v>
+        <v>0</v>
       </c>
       <c r="P3" s="11">
-        <f>BAU!R92</f>
-        <v>18.397272874844436</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="11">
-        <f>BAU!S92</f>
-        <v>18.397272874844433</v>
+        <v>0</v>
       </c>
       <c r="R3" s="11">
-        <f>BAU!T92</f>
-        <v>18.397272874844433</v>
+        <v>0</v>
       </c>
       <c r="S3" s="11">
-        <f>BAU!U92</f>
-        <v>18.397272874844436</v>
+        <v>0</v>
       </c>
       <c r="T3" s="11">
-        <f>BAU!V92</f>
         <v>0</v>
       </c>
       <c r="U3" s="11">
-        <f>BAU!W92</f>
         <v>0</v>
       </c>
       <c r="V3" s="11">
-        <f>BAU!X92</f>
         <v>0</v>
       </c>
       <c r="W3" s="11">
-        <f>BAU!Y92</f>
         <v>0</v>
       </c>
       <c r="X3" s="11">
-        <f>BAU!Z92</f>
         <v>0</v>
       </c>
       <c r="Y3" s="11">
-        <f>BAU!AA92</f>
         <v>0</v>
       </c>
       <c r="Z3" s="11">
-        <f>BAU!AB92</f>
         <v>0</v>
       </c>
       <c r="AA3" s="11">
-        <f>BAU!AC92</f>
         <v>0</v>
       </c>
       <c r="AB3" s="11">
@@ -6276,6 +6271,9 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A4" s="32"/>
+      <c r="E4" s="51" t="s">
+        <v>281</v>
+      </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="33" t="s">
@@ -6990,63 +6988,63 @@
       </c>
       <c r="E33" s="12">
         <f t="shared" si="2"/>
-        <v>0.13762343827285586</v>
+        <v>0.10534699192199266</v>
       </c>
       <c r="F33" s="12">
         <f t="shared" si="2"/>
-        <v>0.13138633305197087</v>
+        <v>0.10714163266705524</v>
       </c>
       <c r="G33" s="12">
         <f t="shared" si="2"/>
-        <v>0.12908730444252411</v>
+        <v>0.10878409837563585</v>
       </c>
       <c r="H33" s="12">
         <f t="shared" si="2"/>
-        <v>0.13088617563670607</v>
+        <v>0.1103000381638132</v>
       </c>
       <c r="I33" s="12">
         <f t="shared" si="2"/>
-        <v>1.6625788463719697E-2</v>
+        <v>0</v>
       </c>
       <c r="J33" s="12">
         <f t="shared" si="2"/>
-        <v>1.6823648726348193E-2</v>
+        <v>0</v>
       </c>
       <c r="K33" s="12">
         <f t="shared" si="2"/>
-        <v>1.4218979329965348E-2</v>
+        <v>0</v>
       </c>
       <c r="L33" s="12">
         <f t="shared" si="2"/>
-        <v>5.5490130566995003E-3</v>
+        <v>0</v>
       </c>
       <c r="M33" s="12">
         <f t="shared" si="2"/>
-        <v>4.2879088392598608E-4</v>
+        <v>0</v>
       </c>
       <c r="N33" s="12">
         <f t="shared" si="2"/>
-        <v>4.3223425106299427E-4</v>
+        <v>0</v>
       </c>
       <c r="O33" s="12">
         <f t="shared" si="2"/>
-        <v>4.3534052402050265E-4</v>
+        <v>0</v>
       </c>
       <c r="P33" s="12">
         <f t="shared" si="2"/>
-        <v>4.3811375678330243E-4</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="12">
         <f t="shared" si="2"/>
-        <v>4.4056987719316422E-4</v>
+        <v>0</v>
       </c>
       <c r="R33" s="12">
         <f t="shared" si="2"/>
-        <v>4.4273489183500951E-4</v>
+        <v>0</v>
       </c>
       <c r="S33" s="12">
         <f t="shared" si="2"/>
-        <v>4.446717974617184E-4</v>
+        <v>0</v>
       </c>
       <c r="T33" s="12">
         <f t="shared" si="2"/>
@@ -20411,7 +20409,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="54" t="s">
         <v>262</v>
       </c>
       <c r="B1" s="8" t="s">
@@ -20425,7 +20423,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="52"/>
+      <c r="A2" s="55"/>
       <c r="B2" s="8" t="s">
         <v>266</v>
       </c>
@@ -20437,7 +20435,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="52"/>
+      <c r="A3" s="55"/>
       <c r="C3" s="8">
         <v>200000</v>
       </c>
@@ -20446,7 +20444,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="52"/>
+      <c r="A4" s="55"/>
       <c r="D4" s="8">
         <v>200000</v>
       </c>
@@ -21838,63 +21836,63 @@
       </c>
       <c r="I2" s="40">
         <f>Data!E33</f>
-        <v>0.13762343827285586</v>
+        <v>0.10534699192199266</v>
       </c>
       <c r="J2" s="40">
         <f>Data!F33</f>
-        <v>0.13138633305197087</v>
+        <v>0.10714163266705524</v>
       </c>
       <c r="K2" s="40">
         <f>Data!G33</f>
-        <v>0.12908730444252411</v>
+        <v>0.10878409837563585</v>
       </c>
       <c r="L2" s="40">
         <f>Data!H33</f>
-        <v>0.13088617563670607</v>
+        <v>0.1103000381638132</v>
       </c>
       <c r="M2" s="40">
         <f>Data!I33</f>
-        <v>1.6625788463719697E-2</v>
+        <v>0</v>
       </c>
       <c r="N2" s="40">
         <f>Data!J33</f>
-        <v>1.6823648726348193E-2</v>
+        <v>0</v>
       </c>
       <c r="O2" s="40">
         <f>Data!K33</f>
-        <v>1.4218979329965348E-2</v>
+        <v>0</v>
       </c>
       <c r="P2" s="40">
         <f>Data!L33</f>
-        <v>5.5490130566995003E-3</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="40">
         <f>Data!M33</f>
-        <v>4.2879088392598608E-4</v>
+        <v>0</v>
       </c>
       <c r="R2" s="40">
         <f>Data!N33</f>
-        <v>4.3223425106299427E-4</v>
+        <v>0</v>
       </c>
       <c r="S2" s="40">
         <f>Data!O33</f>
-        <v>4.3534052402050265E-4</v>
+        <v>0</v>
       </c>
       <c r="T2" s="40">
         <f>Data!P33</f>
-        <v>4.3811375678330243E-4</v>
+        <v>0</v>
       </c>
       <c r="U2" s="40">
         <f>Data!Q33</f>
-        <v>4.4056987719316422E-4</v>
+        <v>0</v>
       </c>
       <c r="V2" s="40">
         <f>Data!R33</f>
-        <v>4.4273489183500951E-4</v>
+        <v>0</v>
       </c>
       <c r="W2" s="40">
         <f>Data!S33</f>
-        <v>4.446717974617184E-4</v>
+        <v>0</v>
       </c>
       <c r="X2" s="40">
         <f>Data!T33</f>
